--- a/tecnicas/DP/TablaMochilaDP.xlsx
+++ b/tecnicas/DP/TablaMochilaDP.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Flan PC\Desktop\EDA2 2020s2\tecnicas\DP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7B5F4AF5-682F-4E87-8814-E730067AD012}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78E1165D-C122-40A2-BE28-9E6310A2874F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{17587B60-E94E-4A1C-8576-246EA762C255}"/>
+    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11385" xr2:uid="{17587B60-E94E-4A1C-8576-246EA762C255}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="4">
   <si>
     <t>Peso</t>
   </si>
@@ -43,6 +43,9 @@
   </si>
   <si>
     <t>Cap</t>
+  </si>
+  <si>
+    <t>Capacidad</t>
   </si>
 </sst>
 </file>
@@ -156,7 +159,7 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -180,6 +183,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -502,10 +508,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A05B6012-CDB2-40C2-A2BE-D3D34CBFF706}">
-  <dimension ref="A2:N12"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.85546875" defaultRowHeight="27.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -513,6 +519,11 @@
     <col min="1" max="16384" width="6.85546875" style="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:14" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
     <row r="2" spans="1:14" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
@@ -731,8 +742,13 @@
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
-      <c r="N6" s="8">
+      <c r="N6" s="9">
         <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F7" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
